--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Dropbox\GitHub\jobmarkethacker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcampusanog/Dropbox/Respaldo/Trabajo/post-phd-apps/jobmarkethacker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898215B6-DF73-488A-8E74-F939ECC50716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186CC25B-605B-3747-B614-78FA41791CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Letter Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Deadline</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Interview</t>
   </si>
   <si>
-    <t>123 Main St</t>
-  </si>
-  <si>
-    <t>Nashville</t>
-  </si>
-  <si>
     <t>econ_academic</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>ThirdPaper</t>
   </si>
   <si>
-    <t>Mangrum_NYCCongestion.pdf</t>
-  </si>
-  <si>
     <t>DiversityBonus</t>
   </si>
   <si>
@@ -210,6 +201,30 @@
   </si>
   <si>
     <t>DiversityStatementCat</t>
+  </si>
+  <si>
+    <t>105 St George Street</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>Dear Hiring Manager</t>
+  </si>
+  <si>
+    <t>Campusano_Neighborhoods.pdf</t>
+  </si>
+  <si>
+    <t>Sample Industry Focused</t>
+  </si>
+  <si>
+    <t>Economist</t>
+  </si>
+  <si>
+    <t>private_sector</t>
   </si>
 </sst>
 </file>
@@ -765,7 +780,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1086,46 +1111,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="189" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="36.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="36.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="1"/>
+    <col min="27" max="27" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,34 +1158,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1172,16 +1197,16 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>6</v>
@@ -1190,260 +1215,308 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4">
         <v>37235</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4">
         <v>37235</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="3">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4">
         <v>37235</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4">
         <v>37235</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3">
-        <v>43466</v>
+        <v>44197</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>37235</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>25</v>
+      <c r="I6" s="3">
+        <v>44197</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1451,8 +1524,13 @@
     <sortCondition ref="H2:H176"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+  <conditionalFormatting sqref="H1:H5 H7:H1048576">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
